--- a/biology/Biochimie/Complexe_pyruvate_déshydrogénase/Complexe_pyruvate_déshydrogénase.xlsx
+++ b/biology/Biochimie/Complexe_pyruvate_déshydrogénase/Complexe_pyruvate_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complexe_pyruvate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Complexe_pyruvate_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe pyruvate déshydrogénase (PDC) est l'association de trois enzymes intervenant séquentiellement pour catalyser la décarboxylation oxydative du pyruvate en acétyl-CoA. Le pyruvate est notamment issu de la glycolyse, tandis que l'acétyl-CoA est, par exemple, le point d'entrée du cycle de Krebs, qui fonctionne dans la foulée de la chaîne respiratoire pour parachever l'oxydation du groupement acétyle de l'acétyl-CoA.
-Le PDC est structurellement apparenté au complexe α-cétoglutarate déshydrogénase et au complexe 3-méthyl-2-oxobutanoate déshydrogénase, constitués comme lui d'une décarboxylase, d'une acyltransférase et d'une oxydo-réductase. Chez les procaryotes, il est organisé selon une symétrie qui varie suivant les espèces, cubique chez les bactéries à Gram négatif, avec 24 sous-unités E2[1], et dodécaédrique chez les bactéries à Gram positif, avec 60 sous-unité E2[2]. Chez les eucaryotes, on le trouve dans la matrice mitochondriale, l'enzyme humaine étant constituée de 96 sous-unités organisées selon une symétrie dodécaédrique[3].
+Le PDC est structurellement apparenté au complexe α-cétoglutarate déshydrogénase et au complexe 3-méthyl-2-oxobutanoate déshydrogénase, constitués comme lui d'une décarboxylase, d'une acyltransférase et d'une oxydo-réductase. Chez les procaryotes, il est organisé selon une symétrie qui varie suivant les espèces, cubique chez les bactéries à Gram négatif, avec 24 sous-unités E2, et dodécaédrique chez les bactéries à Gram positif, avec 60 sous-unité E2. Chez les eucaryotes, on le trouve dans la matrice mitochondriale, l'enzyme humaine étant constituée de 96 sous-unités organisées selon une symétrie dodécaédrique.
 La réaction globale catalysée par le complexe pyruvate déshydrogénase est la suivante :
 Le mécanisme de cette réaction, qui fait intervenir successivement les enzymes E1, E2 et E3, chacune avec ses cofacteurs, est assez complexe, et peut être résumé par le schéma simplifié ci-dessous :
 </t>
